--- a/la_liga_odds.xlsx
+++ b/la_liga_odds.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Darragh\Documents\Python\premier_league\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6EB1DDD-0754-400A-91FF-A12935A16C16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{722161F5-0CC2-4FED-898C-4031EAD3087B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1211,9 +1211,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O380"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
-      <selection activeCell="J101" sqref="J101"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1298,7 +1296,7 @@
         <v>16</v>
       </c>
       <c r="J2">
-        <v>2</v>
+        <v>-0.25</v>
       </c>
       <c r="K2">
         <v>9868</v>
@@ -1342,7 +1340,7 @@
         <v>21</v>
       </c>
       <c r="J3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <v>6279</v>
@@ -1386,7 +1384,7 @@
         <v>24</v>
       </c>
       <c r="J4">
-        <v>2</v>
+        <v>0.25</v>
       </c>
       <c r="K4">
         <v>6941</v>
@@ -1430,7 +1428,7 @@
         <v>28</v>
       </c>
       <c r="J5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <v>6715</v>
@@ -1474,7 +1472,7 @@
         <v>31</v>
       </c>
       <c r="J6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K6">
         <v>3968</v>
@@ -1518,7 +1516,7 @@
         <v>109</v>
       </c>
       <c r="J7">
-        <v>2</v>
+        <v>0.25</v>
       </c>
       <c r="K7">
         <v>5401</v>
@@ -1562,7 +1560,7 @@
         <v>39</v>
       </c>
       <c r="J8">
-        <v>2</v>
+        <v>-0.75</v>
       </c>
       <c r="K8">
         <v>20384</v>
@@ -1606,7 +1604,7 @@
         <v>43</v>
       </c>
       <c r="J9">
-        <v>2</v>
+        <v>-1.25</v>
       </c>
       <c r="K9">
         <v>13962</v>
@@ -1650,7 +1648,7 @@
         <v>48</v>
       </c>
       <c r="J10">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="K10">
         <v>7837</v>
@@ -1694,7 +1692,7 @@
         <v>52</v>
       </c>
       <c r="J11">
-        <v>2</v>
+        <v>0.25</v>
       </c>
       <c r="K11">
         <v>9145</v>
@@ -1738,7 +1736,7 @@
         <v>107</v>
       </c>
       <c r="J12">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="K12">
         <v>23745</v>
@@ -1782,7 +1780,7 @@
         <v>20</v>
       </c>
       <c r="J13">
-        <v>2</v>
+        <v>-0.25</v>
       </c>
       <c r="K13">
         <v>2896</v>
@@ -1826,7 +1824,7 @@
         <v>15</v>
       </c>
       <c r="J14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K14">
         <v>6267</v>
@@ -1870,7 +1868,7 @@
         <v>47</v>
       </c>
       <c r="J15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K15">
         <v>11095</v>
@@ -1914,7 +1912,7 @@
         <v>38</v>
       </c>
       <c r="J16">
-        <v>2</v>
+        <v>0.75</v>
       </c>
       <c r="K16">
         <v>9394</v>
@@ -1958,7 +1956,7 @@
         <v>43</v>
       </c>
       <c r="J17">
-        <v>2</v>
+        <v>-1.25</v>
       </c>
       <c r="K17">
         <v>7652</v>
@@ -2002,7 +2000,7 @@
         <v>51</v>
       </c>
       <c r="J18">
-        <v>2</v>
+        <v>-1.5</v>
       </c>
       <c r="K18">
         <v>24926</v>
@@ -2046,7 +2044,7 @@
         <v>31</v>
       </c>
       <c r="J19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K19">
         <v>9838</v>
@@ -2090,7 +2088,7 @@
         <v>42</v>
       </c>
       <c r="J20">
-        <v>2</v>
+        <v>0.25</v>
       </c>
       <c r="K20">
         <v>4810</v>
@@ -2134,7 +2132,7 @@
         <v>35</v>
       </c>
       <c r="J21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K21">
         <v>7189</v>
@@ -2178,7 +2176,7 @@
         <v>28</v>
       </c>
       <c r="J22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K22">
         <v>7529</v>
@@ -2222,7 +2220,7 @@
         <v>108</v>
       </c>
       <c r="J23">
-        <v>2</v>
+        <v>-0.75</v>
       </c>
       <c r="K23">
         <v>10627</v>
@@ -2266,7 +2264,7 @@
         <v>52</v>
       </c>
       <c r="J24">
-        <v>2</v>
+        <v>-0.25</v>
       </c>
       <c r="K24">
         <v>5492</v>
@@ -2310,7 +2308,7 @@
         <v>42</v>
       </c>
       <c r="J25">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="K25">
         <v>10385</v>
@@ -2354,7 +2352,7 @@
         <v>24</v>
       </c>
       <c r="J26">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="K26">
         <v>7758</v>
@@ -2398,7 +2396,7 @@
         <v>31</v>
       </c>
       <c r="J27">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="K27">
         <v>22590</v>
@@ -2442,7 +2440,7 @@
         <v>16</v>
       </c>
       <c r="J28">
-        <v>2</v>
+        <v>-1.25</v>
       </c>
       <c r="K28">
         <v>26543</v>
@@ -2486,7 +2484,7 @@
         <v>48</v>
       </c>
       <c r="J29">
-        <v>2</v>
+        <v>-0.25</v>
       </c>
       <c r="K29">
         <v>583</v>
@@ -2530,7 +2528,7 @@
         <v>27</v>
       </c>
       <c r="J30">
-        <v>2</v>
+        <v>0.25</v>
       </c>
       <c r="K30">
         <v>7452</v>
@@ -2574,7 +2572,7 @@
         <v>47</v>
       </c>
       <c r="J31">
-        <v>2</v>
+        <v>-0.75</v>
       </c>
       <c r="K31">
         <v>26840</v>
@@ -2618,7 +2616,7 @@
         <v>43</v>
       </c>
       <c r="J32">
-        <v>2</v>
+        <v>-0.25</v>
       </c>
       <c r="K32">
         <v>12974</v>
@@ -2662,7 +2660,7 @@
         <v>20</v>
       </c>
       <c r="J33">
-        <v>2</v>
+        <v>-0.75</v>
       </c>
       <c r="K33">
         <v>14566</v>
@@ -2706,7 +2704,7 @@
         <v>109</v>
       </c>
       <c r="J34">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="K34">
         <v>15321</v>
@@ -2750,7 +2748,7 @@
         <v>15</v>
       </c>
       <c r="J35">
-        <v>2</v>
+        <v>-0.25</v>
       </c>
       <c r="K35">
         <v>13940</v>
@@ -2794,7 +2792,7 @@
         <v>39</v>
       </c>
       <c r="J36">
-        <v>2</v>
+        <v>0.75</v>
       </c>
       <c r="K36">
         <v>11826</v>
@@ -2838,7 +2836,7 @@
         <v>35</v>
       </c>
       <c r="J37">
-        <v>2</v>
+        <v>-1.25</v>
       </c>
       <c r="K37">
         <v>19874</v>
@@ -2882,7 +2880,7 @@
         <v>51</v>
       </c>
       <c r="J38">
-        <v>2</v>
+        <v>-0.75</v>
       </c>
       <c r="K38">
         <v>6853</v>
@@ -2926,7 +2924,7 @@
         <v>21</v>
       </c>
       <c r="J39">
-        <v>2</v>
+        <v>0.25</v>
       </c>
       <c r="K39">
         <v>10201</v>
@@ -2970,7 +2968,7 @@
         <v>107</v>
       </c>
       <c r="J40">
-        <v>2</v>
+        <v>-1.25</v>
       </c>
       <c r="K40">
         <v>6754</v>
@@ -3014,7 +3012,7 @@
         <v>16</v>
       </c>
       <c r="J41">
-        <v>2</v>
+        <v>-0.25</v>
       </c>
       <c r="K41">
         <v>3280</v>
@@ -3058,7 +3056,7 @@
         <v>52</v>
       </c>
       <c r="J42">
-        <v>2</v>
+        <v>-0.75</v>
       </c>
       <c r="K42">
         <v>38798</v>
@@ -3102,7 +3100,7 @@
         <v>24</v>
       </c>
       <c r="J43">
-        <v>2</v>
+        <v>-0.25</v>
       </c>
       <c r="K43">
         <v>11507</v>
@@ -3146,7 +3144,7 @@
         <v>27</v>
       </c>
       <c r="J44">
-        <v>2</v>
+        <v>0.25</v>
       </c>
       <c r="K44">
         <v>8176</v>
@@ -3190,7 +3188,7 @@
         <v>47</v>
       </c>
       <c r="J45">
-        <v>2</v>
+        <v>0.25</v>
       </c>
       <c r="K45">
         <v>9168</v>
@@ -3234,7 +3232,7 @@
         <v>42</v>
       </c>
       <c r="J46">
-        <v>2</v>
+        <v>-0.25</v>
       </c>
       <c r="K46">
         <v>23757</v>
@@ -3278,7 +3276,7 @@
         <v>28</v>
       </c>
       <c r="J47">
-        <v>2</v>
+        <v>-0.5</v>
       </c>
       <c r="K47">
         <v>30189</v>
@@ -3322,7 +3320,7 @@
         <v>31</v>
       </c>
       <c r="J48">
-        <v>2</v>
+        <v>0.75</v>
       </c>
       <c r="K48">
         <v>26689</v>
@@ -3366,7 +3364,7 @@
         <v>48</v>
       </c>
       <c r="J49">
-        <v>2</v>
+        <v>-1.75</v>
       </c>
       <c r="K49">
         <v>27097</v>
@@ -3410,7 +3408,7 @@
         <v>109</v>
       </c>
       <c r="J50">
-        <v>2</v>
+        <v>0.75</v>
       </c>
       <c r="K50">
         <v>8950</v>
@@ -3454,7 +3452,7 @@
         <v>35</v>
       </c>
       <c r="J51">
-        <v>2</v>
+        <v>0.25</v>
       </c>
       <c r="K51">
         <v>11989</v>
@@ -3498,7 +3496,7 @@
         <v>43</v>
       </c>
       <c r="J52">
-        <v>2</v>
+        <v>-0.75</v>
       </c>
       <c r="K52">
         <v>16236</v>
@@ -3542,7 +3540,7 @@
         <v>108</v>
       </c>
       <c r="J53">
-        <v>2</v>
+        <v>-0.75</v>
       </c>
       <c r="K53">
         <v>14254</v>
@@ -3586,7 +3584,7 @@
         <v>15</v>
       </c>
       <c r="J54">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="K54">
         <v>23654</v>
@@ -3630,7 +3628,7 @@
         <v>51</v>
       </c>
       <c r="J55">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="K55">
         <v>8234</v>
@@ -3674,7 +3672,7 @@
         <v>20</v>
       </c>
       <c r="J56">
-        <v>2</v>
+        <v>-1.75</v>
       </c>
       <c r="K56">
         <v>20113</v>
@@ -3718,7 +3716,7 @@
         <v>21</v>
       </c>
       <c r="J57">
-        <v>2</v>
+        <v>-0.25</v>
       </c>
       <c r="K57">
         <v>13758</v>
@@ -3762,7 +3760,7 @@
         <v>39</v>
       </c>
       <c r="J58">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="K58">
         <v>9552</v>
@@ -3806,7 +3804,7 @@
         <v>38</v>
       </c>
       <c r="J59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K59">
         <v>12180</v>
@@ -3850,7 +3848,7 @@
         <v>109</v>
       </c>
       <c r="J60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K60">
         <v>9836</v>
@@ -3894,7 +3892,7 @@
         <v>52</v>
       </c>
       <c r="J61">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K61">
         <v>13680</v>
@@ -3938,7 +3936,7 @@
         <v>28</v>
       </c>
       <c r="J62">
-        <v>2</v>
+        <v>-1.25</v>
       </c>
       <c r="K62">
         <v>23956</v>
@@ -3982,7 +3980,7 @@
         <v>47</v>
       </c>
       <c r="J63">
-        <v>2</v>
+        <v>-1.25</v>
       </c>
       <c r="K63">
         <v>23985</v>
@@ -4026,7 +4024,7 @@
         <v>27</v>
       </c>
       <c r="J64">
-        <v>2</v>
+        <v>-0.25</v>
       </c>
       <c r="K64">
         <v>9359</v>
@@ -4070,7 +4068,7 @@
         <v>24</v>
       </c>
       <c r="J65">
-        <v>2</v>
+        <v>-1.25</v>
       </c>
       <c r="K65">
         <v>35334</v>
@@ -4114,7 +4112,7 @@
         <v>51</v>
       </c>
       <c r="J66">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="K66">
         <v>23941</v>
@@ -4158,7 +4156,7 @@
         <v>107</v>
       </c>
       <c r="J67">
-        <v>2</v>
+        <v>-0.75</v>
       </c>
       <c r="K67">
         <v>5903</v>
@@ -4202,7 +4200,7 @@
         <v>16</v>
       </c>
       <c r="J68">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="K68">
         <v>29825</v>
@@ -4246,7 +4244,7 @@
         <v>48</v>
       </c>
       <c r="J69">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="K69">
         <v>6375</v>
@@ -4290,7 +4288,7 @@
         <v>108</v>
       </c>
       <c r="J70">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="K70">
         <v>28665</v>
@@ -4334,7 +4332,7 @@
         <v>43</v>
       </c>
       <c r="J71">
-        <v>2</v>
+        <v>-0.25</v>
       </c>
       <c r="K71">
         <v>19238</v>
@@ -4378,7 +4376,7 @@
         <v>24</v>
       </c>
       <c r="J72">
-        <v>2</v>
+        <v>-0.25</v>
       </c>
       <c r="K72">
         <v>11803</v>
@@ -4422,7 +4420,7 @@
         <v>15</v>
       </c>
       <c r="J73">
-        <v>2</v>
+        <v>0.25</v>
       </c>
       <c r="K73">
         <v>14794</v>
@@ -4466,7 +4464,7 @@
         <v>38</v>
       </c>
       <c r="J74">
-        <v>2</v>
+        <v>-0.5</v>
       </c>
       <c r="K74">
         <v>60594</v>
@@ -4510,7 +4508,7 @@
         <v>35</v>
       </c>
       <c r="J75">
-        <v>2</v>
+        <v>0.25</v>
       </c>
       <c r="K75">
         <v>11299</v>
@@ -4554,7 +4552,7 @@
         <v>31</v>
       </c>
       <c r="J76">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K76">
         <v>23377</v>
@@ -4598,7 +4596,7 @@
         <v>21</v>
       </c>
       <c r="J77">
-        <v>2</v>
+        <v>-0.5</v>
       </c>
       <c r="K77">
         <v>16719</v>
@@ -4642,7 +4640,7 @@
         <v>39</v>
       </c>
       <c r="J78">
-        <v>2</v>
+        <v>0.25</v>
       </c>
       <c r="K78">
         <v>8463</v>
@@ -4686,7 +4684,7 @@
         <v>42</v>
       </c>
       <c r="J79">
-        <v>2</v>
+        <v>0.75</v>
       </c>
       <c r="K79">
         <v>12334</v>
@@ -4730,7 +4728,7 @@
         <v>16</v>
       </c>
       <c r="J80">
-        <v>2</v>
+        <v>-0.25</v>
       </c>
       <c r="K80">
         <v>14551</v>
@@ -4774,7 +4772,7 @@
         <v>20</v>
       </c>
       <c r="J81">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="K81">
         <v>30831</v>
@@ -4818,7 +4816,7 @@
         <v>51</v>
       </c>
       <c r="J82">
-        <v>2</v>
+        <v>-0.5</v>
       </c>
       <c r="K82">
         <v>6989</v>
@@ -4862,7 +4860,7 @@
         <v>42</v>
       </c>
       <c r="J83">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K83">
         <v>10774</v>
@@ -4906,7 +4904,7 @@
         <v>27</v>
       </c>
       <c r="J84">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="K84">
         <v>14831</v>
@@ -4950,7 +4948,7 @@
         <v>15</v>
       </c>
       <c r="J85">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="K85">
         <v>47317</v>
@@ -4994,7 +4992,7 @@
         <v>21</v>
       </c>
       <c r="J86">
-        <v>2</v>
+        <v>0.25</v>
       </c>
       <c r="K86">
         <v>10227</v>
@@ -5038,7 +5036,7 @@
         <v>107</v>
       </c>
       <c r="J87">
-        <v>2</v>
+        <v>-0.75</v>
       </c>
       <c r="K87">
         <v>15678</v>
@@ -5082,7 +5080,7 @@
         <v>48</v>
       </c>
       <c r="J88">
-        <v>2</v>
+        <v>-0.75</v>
       </c>
       <c r="K88">
         <v>21128</v>
@@ -5126,7 +5124,7 @@
         <v>20</v>
       </c>
       <c r="J89">
-        <v>2</v>
+        <v>-0.75</v>
       </c>
       <c r="K89">
         <v>29139</v>
@@ -5170,7 +5168,7 @@
         <v>108</v>
       </c>
       <c r="J90">
-        <v>2</v>
+        <v>-0.25</v>
       </c>
       <c r="K90">
         <v>13790</v>
@@ -5214,7 +5212,7 @@
         <v>28</v>
       </c>
       <c r="J91">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K91">
         <v>13449</v>
@@ -5258,7 +5256,7 @@
         <v>47</v>
       </c>
       <c r="J92">
-        <v>2</v>
+        <v>-0.25</v>
       </c>
       <c r="K92">
         <v>38698</v>
@@ -5302,7 +5300,7 @@
         <v>24</v>
       </c>
       <c r="J93">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="K93">
         <v>30601</v>
@@ -5346,7 +5344,7 @@
         <v>31</v>
       </c>
       <c r="J94">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K94">
         <v>86422</v>
@@ -5390,7 +5388,7 @@
         <v>43</v>
       </c>
       <c r="J95">
-        <v>2</v>
+        <v>-0.75</v>
       </c>
       <c r="K95">
         <v>45362</v>
@@ -5434,7 +5432,7 @@
         <v>39</v>
       </c>
       <c r="J96">
-        <v>2</v>
+        <v>-0.75</v>
       </c>
       <c r="K96">
         <v>50032</v>
@@ -5478,7 +5476,7 @@
         <v>35</v>
       </c>
       <c r="J97">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K97">
         <v>7630</v>
@@ -5522,7 +5520,7 @@
         <v>51</v>
       </c>
       <c r="J98">
-        <v>2</v>
+        <v>-0.25</v>
       </c>
       <c r="K98">
         <v>10206</v>
@@ -5566,7 +5564,7 @@
         <v>52</v>
       </c>
       <c r="J99">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K99">
         <v>16196</v>
@@ -5610,7 +5608,7 @@
         <v>107</v>
       </c>
       <c r="J100">
-        <v>2</v>
+        <v>-1.5</v>
       </c>
       <c r="K100">
         <v>12190</v>

--- a/la_liga_odds.xlsx
+++ b/la_liga_odds.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Darragh\Documents\Python\premier_league\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{722161F5-0CC2-4FED-898C-4031EAD3087B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9E9E22D-3036-40C1-BF49-960A3A21B188}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1211,7 +1211,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O380"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A254" workbookViewId="0">
+      <selection activeCell="J270" sqref="J270"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -12154,6 +12156,9 @@
       <c r="I249" t="s">
         <v>24</v>
       </c>
+      <c r="J249">
+        <v>-0.75</v>
+      </c>
       <c r="L249" t="s">
         <v>36</v>
       </c>
@@ -12180,6 +12185,9 @@
       <c r="I250" t="s">
         <v>15</v>
       </c>
+      <c r="J250">
+        <v>-0.25</v>
+      </c>
       <c r="L250" t="s">
         <v>22</v>
       </c>
@@ -12206,6 +12214,9 @@
       <c r="I251" t="s">
         <v>51</v>
       </c>
+      <c r="J251">
+        <v>-0.5</v>
+      </c>
       <c r="L251" t="s">
         <v>67</v>
       </c>
@@ -12232,6 +12243,9 @@
       <c r="I252" t="s">
         <v>108</v>
       </c>
+      <c r="J252">
+        <v>-0.5</v>
+      </c>
       <c r="L252" t="s">
         <v>69</v>
       </c>
@@ -12258,6 +12272,9 @@
       <c r="I253" t="s">
         <v>31</v>
       </c>
+      <c r="J253">
+        <v>1</v>
+      </c>
       <c r="L253" t="s">
         <v>72</v>
       </c>
@@ -12284,6 +12301,9 @@
       <c r="I254" t="s">
         <v>35</v>
       </c>
+      <c r="J254">
+        <v>-0.75</v>
+      </c>
       <c r="L254" t="s">
         <v>65</v>
       </c>
@@ -12310,6 +12330,9 @@
       <c r="I255" t="s">
         <v>28</v>
       </c>
+      <c r="J255">
+        <v>-1</v>
+      </c>
       <c r="L255" t="s">
         <v>49</v>
       </c>
@@ -12336,6 +12359,9 @@
       <c r="I256" t="s">
         <v>21</v>
       </c>
+      <c r="J256">
+        <v>-0.25</v>
+      </c>
       <c r="L256" t="s">
         <v>44</v>
       </c>
@@ -12362,6 +12388,9 @@
       <c r="I257" t="s">
         <v>27</v>
       </c>
+      <c r="J257">
+        <v>-0.5</v>
+      </c>
       <c r="L257" t="s">
         <v>64</v>
       </c>
@@ -12388,6 +12417,9 @@
       <c r="I258" t="s">
         <v>52</v>
       </c>
+      <c r="J258">
+        <v>-1</v>
+      </c>
       <c r="L258" t="s">
         <v>40</v>
       </c>
@@ -12414,6 +12446,9 @@
       <c r="I259" t="s">
         <v>107</v>
       </c>
+      <c r="J259">
+        <v>-0.5</v>
+      </c>
       <c r="L259" t="s">
         <v>58</v>
       </c>
@@ -12440,6 +12475,9 @@
       <c r="I260" t="s">
         <v>39</v>
       </c>
+      <c r="J260">
+        <v>0.25</v>
+      </c>
       <c r="L260" t="s">
         <v>22</v>
       </c>
@@ -12466,6 +12504,9 @@
       <c r="I261" t="s">
         <v>42</v>
       </c>
+      <c r="J261">
+        <v>0.5</v>
+      </c>
       <c r="L261" t="s">
         <v>32</v>
       </c>
@@ -12492,6 +12533,9 @@
       <c r="I262" t="s">
         <v>47</v>
       </c>
+      <c r="J262">
+        <v>0.25</v>
+      </c>
       <c r="L262" t="s">
         <v>29</v>
       </c>
@@ -12518,6 +12562,9 @@
       <c r="I263" t="s">
         <v>16</v>
       </c>
+      <c r="J263">
+        <v>-0.25</v>
+      </c>
       <c r="L263" t="s">
         <v>60</v>
       </c>
@@ -12544,6 +12591,9 @@
       <c r="I264" t="s">
         <v>48</v>
       </c>
+      <c r="J264">
+        <v>-0.75</v>
+      </c>
       <c r="L264" t="s">
         <v>17</v>
       </c>
@@ -12570,6 +12620,9 @@
       <c r="I265" t="s">
         <v>39</v>
       </c>
+      <c r="J265">
+        <v>-1</v>
+      </c>
       <c r="L265" t="s">
         <v>73</v>
       </c>
@@ -12596,6 +12649,9 @@
       <c r="I266" t="s">
         <v>43</v>
       </c>
+      <c r="J266">
+        <v>0</v>
+      </c>
       <c r="L266" t="s">
         <v>25</v>
       </c>
@@ -12622,6 +12678,9 @@
       <c r="I267" t="s">
         <v>38</v>
       </c>
+      <c r="J267">
+        <v>1.25</v>
+      </c>
       <c r="L267" t="s">
         <v>53</v>
       </c>
@@ -12648,6 +12707,9 @@
       <c r="I268" t="s">
         <v>20</v>
       </c>
+      <c r="J268">
+        <v>-0.75</v>
+      </c>
       <c r="L268" t="s">
         <v>36</v>
       </c>
@@ -12674,6 +12736,9 @@
       <c r="I269" t="s">
         <v>109</v>
       </c>
+      <c r="J269">
+        <v>0.25</v>
+      </c>
       <c r="L269" t="s">
         <v>55</v>
       </c>
@@ -12699,6 +12764,9 @@
       </c>
       <c r="I270" t="s">
         <v>24</v>
+      </c>
+      <c r="J270">
+        <v>-1</v>
       </c>
       <c r="L270" t="s">
         <v>62</v>
